--- a/도서대여 프로젝트/도서정보_테이블명세_MYSQL.xlsx
+++ b/도서대여 프로젝트/도서정보_테이블명세_MYSQL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="도서 정보 테이블" sheetId="3" r:id="rId1"/>
@@ -5742,7 +5742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:H10"/>
     </sheetView>
   </sheetViews>
@@ -6800,7 +6800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:H11"/>
     </sheetView>
   </sheetViews>
